--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>56.47185866666666</v>
+        <v>0.1510096666666667</v>
       </c>
       <c r="H2">
-        <v>169.415576</v>
+        <v>0.453029</v>
       </c>
       <c r="I2">
-        <v>0.8070274173741353</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="J2">
-        <v>0.8070274173741354</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.687688666666667</v>
+        <v>0.016376</v>
       </c>
       <c r="N2">
-        <v>14.063066</v>
+        <v>0.049128</v>
       </c>
       <c r="O2">
-        <v>0.9929463927259303</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P2">
-        <v>0.9929463927259304</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q2">
-        <v>264.7224918573351</v>
+        <v>0.002472934301333333</v>
       </c>
       <c r="R2">
-        <v>2382.502426716016</v>
+        <v>0.022256408712</v>
       </c>
       <c r="S2">
-        <v>0.8013349629125714</v>
+        <v>0.005438750120969129</v>
       </c>
       <c r="T2">
-        <v>0.8013349629125717</v>
+        <v>0.005438750120969129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>56.47185866666666</v>
+        <v>0.1510096666666667</v>
       </c>
       <c r="H3">
-        <v>169.415576</v>
+        <v>0.453029</v>
       </c>
       <c r="I3">
-        <v>0.8070274173741353</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="J3">
-        <v>0.8070274173741354</v>
+        <v>0.01105950042918124</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.016376</v>
+        <v>0.016924</v>
       </c>
       <c r="N3">
-        <v>0.049128</v>
+        <v>0.050772</v>
       </c>
       <c r="O3">
-        <v>0.003468764946551448</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P3">
-        <v>0.003468764946551449</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q3">
-        <v>0.9247831575253331</v>
+        <v>0.002555687598666667</v>
       </c>
       <c r="R3">
-        <v>8.323048417728</v>
+        <v>0.023001188388</v>
       </c>
       <c r="S3">
-        <v>0.002799388416293346</v>
+        <v>0.005620750308212112</v>
       </c>
       <c r="T3">
-        <v>0.002799388416293347</v>
+        <v>0.005620750308212112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.47185866666666</v>
+        <v>10.23495333333333</v>
       </c>
       <c r="H4">
-        <v>169.415576</v>
+        <v>30.70486</v>
       </c>
       <c r="I4">
-        <v>0.8070274173741353</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J4">
-        <v>0.8070274173741354</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.016924</v>
+        <v>0.016376</v>
       </c>
       <c r="N4">
-        <v>0.050772</v>
+        <v>0.049128</v>
       </c>
       <c r="O4">
-        <v>0.003584842327518119</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P4">
-        <v>0.00358484232751812</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q4">
-        <v>0.9557297360746667</v>
+        <v>0.1676075957866666</v>
       </c>
       <c r="R4">
-        <v>8.601567624672001</v>
+        <v>1.50846836208</v>
       </c>
       <c r="S4">
-        <v>0.002893066045270432</v>
+        <v>0.3686211280940959</v>
       </c>
       <c r="T4">
-        <v>0.002893066045270433</v>
+        <v>0.3686211280940959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>30.70486</v>
       </c>
       <c r="I5">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="J5">
-        <v>0.1462655586439962</v>
+        <v>0.7495776481151314</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.687688666666667</v>
+        <v>0.016924</v>
       </c>
       <c r="N5">
-        <v>14.063066</v>
+        <v>0.050772</v>
       </c>
       <c r="O5">
-        <v>0.9929463927259303</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P5">
-        <v>0.9929463927259304</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q5">
-        <v>47.9782747445289</v>
+        <v>0.1732163502133333</v>
       </c>
       <c r="R5">
-        <v>431.80447270076</v>
+        <v>1.55894715192</v>
       </c>
       <c r="S5">
-        <v>0.145233858835599</v>
+        <v>0.3809565200210355</v>
       </c>
       <c r="T5">
-        <v>0.1452338588355991</v>
+        <v>0.3809565200210355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.23495333333333</v>
+        <v>3.268330666666666</v>
       </c>
       <c r="H6">
-        <v>30.70486</v>
+        <v>9.804991999999999</v>
       </c>
       <c r="I6">
-        <v>0.1462655586439962</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="J6">
-        <v>0.1462655586439962</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>0.049128</v>
       </c>
       <c r="O6">
-        <v>0.003468764946551448</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="P6">
-        <v>0.003468764946551449</v>
+        <v>0.4917717717717718</v>
       </c>
       <c r="Q6">
-        <v>0.1676075957866666</v>
+        <v>0.05352218299733331</v>
       </c>
       <c r="R6">
-        <v>1.50846836208</v>
+        <v>0.4816996469759999</v>
       </c>
       <c r="S6">
-        <v>0.0005073608427120592</v>
+        <v>0.1177118935567068</v>
       </c>
       <c r="T6">
-        <v>0.0005073608427120594</v>
+        <v>0.1177118935567068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.23495333333333</v>
+        <v>3.268330666666666</v>
       </c>
       <c r="H7">
-        <v>30.70486</v>
+        <v>9.804991999999999</v>
       </c>
       <c r="I7">
-        <v>0.1462655586439962</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="J7">
-        <v>0.1462655586439962</v>
+        <v>0.2393628514556874</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.050772</v>
       </c>
       <c r="O7">
-        <v>0.003584842327518119</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="P7">
-        <v>0.00358484232751812</v>
+        <v>0.5082282282282282</v>
       </c>
       <c r="Q7">
-        <v>0.1732163502133333</v>
+        <v>0.05531322820266665</v>
       </c>
       <c r="R7">
-        <v>1.55894715192</v>
+        <v>0.4978190538239999</v>
       </c>
       <c r="S7">
-        <v>0.0005243389656850812</v>
+        <v>0.1216509578989806</v>
       </c>
       <c r="T7">
-        <v>0.0005243389656850814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.268330666666666</v>
-      </c>
-      <c r="H8">
-        <v>9.804991999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.04670702398186845</v>
-      </c>
-      <c r="J8">
-        <v>0.04670702398186845</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>4.687688666666667</v>
-      </c>
-      <c r="N8">
-        <v>14.063066</v>
-      </c>
-      <c r="O8">
-        <v>0.9929463927259303</v>
-      </c>
-      <c r="P8">
-        <v>0.9929463927259304</v>
-      </c>
-      <c r="Q8">
-        <v>15.32091662505244</v>
-      </c>
-      <c r="R8">
-        <v>137.888249625472</v>
-      </c>
-      <c r="S8">
-        <v>0.0463775709777598</v>
-      </c>
-      <c r="T8">
-        <v>0.0463775709777598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.268330666666666</v>
-      </c>
-      <c r="H9">
-        <v>9.804991999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.04670702398186845</v>
-      </c>
-      <c r="J9">
-        <v>0.04670702398186845</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.016376</v>
-      </c>
-      <c r="N9">
-        <v>0.049128</v>
-      </c>
-      <c r="O9">
-        <v>0.003468764946551448</v>
-      </c>
-      <c r="P9">
-        <v>0.003468764946551449</v>
-      </c>
-      <c r="Q9">
-        <v>0.05352218299733331</v>
-      </c>
-      <c r="R9">
-        <v>0.4816996469759999</v>
-      </c>
-      <c r="S9">
-        <v>0.0001620156875460431</v>
-      </c>
-      <c r="T9">
-        <v>0.0001620156875460432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.268330666666666</v>
-      </c>
-      <c r="H10">
-        <v>9.804991999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.04670702398186845</v>
-      </c>
-      <c r="J10">
-        <v>0.04670702398186845</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.016924</v>
-      </c>
-      <c r="N10">
-        <v>0.050772</v>
-      </c>
-      <c r="O10">
-        <v>0.003584842327518119</v>
-      </c>
-      <c r="P10">
-        <v>0.00358484232751812</v>
-      </c>
-      <c r="Q10">
-        <v>0.05531322820266666</v>
-      </c>
-      <c r="R10">
-        <v>0.497819053824</v>
-      </c>
-      <c r="S10">
-        <v>0.0001674373165626059</v>
-      </c>
-      <c r="T10">
-        <v>0.000167437316562606</v>
+        <v>0.1216509578989806</v>
       </c>
     </row>
   </sheetData>
